--- a/biology/Botanique/Cardamine_hirsute/Cardamine_hirsute.xlsx
+++ b/biology/Botanique/Cardamine_hirsute/Cardamine_hirsute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine hirsuta
 Cardamine hirsuta, la cardamine hirsute ou cardamine hérissée, est une espèce de plantes dicotylédones de la famille des Brassicaceae, originaire des régions tempérées et tempérées chaudes de l'Ancien Monde (Europe, Asie, Afrique).
@@ -513,10 +525,12 @@
           <t>Phytonymie et appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Cardamine » est la francisation du latin cardamina qui désignait en latin et en grec (kardaminê, kardamon ou kardamis) un cresson, sans doute le cresson alénois. L'épithète hirsute fait référence à sa base très velue[2].
-Cette espèce porte plusieurs noms vernaculaires : Cardamine à tiges nombreuses, Cresson des prés, Cresson de muraille, Cresson de vigne, Cressonette (ses feuilles froissées entre les doigts, exhalent l'odeur soufrée de cresson)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Cardamine » est la francisation du latin cardamina qui désignait en latin et en grec (kardaminê, kardamon ou kardamis) un cresson, sans doute le cresson alénois. L'épithète hirsute fait référence à sa base très velue.
+Cette espèce porte plusieurs noms vernaculaires : Cardamine à tiges nombreuses, Cresson des prés, Cresson de muraille, Cresson de vigne, Cressonette (ses feuilles froissées entre les doigts, exhalent l'odeur soufrée de cresson).
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La cardamine hirsute est une plante herbacée annuelle moyenne (5 à 25 cm de haut), hérissée à la base, formant souvent de grandes colonies.
-L'appareil souterrain est réduit à une racine pivotante, sans fibres capillaires. La tige pleine, à section ronde, est glabre et assez peu feuillée. Elle présente une hétérophyllie marquée : les nombreuses feuilles basales en rosette, munies d'un pétiole assez poilu, sont pennatiséquées, à 5-9 lobes presque rondes. Les feuilles caulinaires alternes sont plus petites et plus minces, avec une à quatre paires de folioles, sans oreillettes à la base, à lobes oblongs ou linéaires. Leurs deux faces sont glabres[4].
-Appareil reproducteur
-Les petites fleurs (5 mm de diamètre) ont 4 sépales verts et 4 pétales blancs (2,5–3 mm de long) dressés, étroits, dépassant peu le calice. L'androcée est généralement composé de 6 étamines. La plante est autogame[5].
-La grappe fructifère, assez longue, porte des siliques (longues de 20 à 30 mm) dressées, qui dépassent nettement les fleurs épanouies[6], à bec de moitié plus court que leur largeur, terminées par une petite soie à peine visible (0,5 mm de long). Une fois mûres, les siliques, s'ouvrent par un simple attouchement de la plante (déhiscence explosive), provoquant la rupture des zones de déhiscence des valves de la silique qui s'enroulent alors brusquement avec un petit claquement projetant les graines à plusieurs dizaines de centimètres (dissémination des petites graines non ailées par autochorie de type ballochorie).
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cardamine hirsute est une plante herbacée annuelle moyenne (5 à 25 cm de haut), hérissée à la base, formant souvent de grandes colonies.
+L'appareil souterrain est réduit à une racine pivotante, sans fibres capillaires. La tige pleine, à section ronde, est glabre et assez peu feuillée. Elle présente une hétérophyllie marquée : les nombreuses feuilles basales en rosette, munies d'un pétiole assez poilu, sont pennatiséquées, à 5-9 lobes presque rondes. Les feuilles caulinaires alternes sont plus petites et plus minces, avec une à quatre paires de folioles, sans oreillettes à la base, à lobes oblongs ou linéaires. Leurs deux faces sont glabres.
 </t>
         </is>
       </c>
@@ -578,13 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu dès le mois de février, jusqu'en novembre, voire janvier dans l'hémisphère nord[6].
-La plante pratique la nyctinastie : la fleur s'ouvre le matin et se ferme complètement le soir ; elle fait de même par temps humide ou très nuageux. La nyctinastie a un impact positif sur la croissance mais peut, par le processus d'exaptation, jouer un rôle de défense contre les herbivores la nuit, sachant que les principaux consommateurs de ces fleurs, les limaces et les chevreuils, sont surtout actifs de nuit[7].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les petites fleurs (5 mm de diamètre) ont 4 sépales verts et 4 pétales blancs (2,5–3 mm de long) dressés, étroits, dépassant peu le calice. L'androcée est généralement composé de 6 étamines. La plante est autogame.
+La grappe fructifère, assez longue, porte des siliques (longues de 20 à 30 mm) dressées, qui dépassent nettement les fleurs épanouies, à bec de moitié plus court que leur largeur, terminées par une petite soie à peine visible (0,5 mm de long). Une fois mûres, les siliques, s'ouvrent par un simple attouchement de la plante (déhiscence explosive), provoquant la rupture des zones de déhiscence des valves de la silique qui s'enroulent alors brusquement avec un petit claquement projetant les graines à plusieurs dizaines de centimètres (dissémination des petites graines non ailées par autochorie de type ballochorie).
 </t>
         </is>
       </c>
@@ -610,13 +632,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terrains nus, découverts, tels que les bords de chemins, les friches, les cultures, mais aussi les vieux murs, ce végétal est présent en environnement urbain (les graines très fines et dispersée permettent à la plante de s'introduire dans les jardinières sur les balcons en pleine ville), en association avec la Drave printanière et le Cystoptère fragile. C'est une espèce nitrophile[6].
-Largement répandue en Europe, Asie.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu dès le mois de février, jusqu'en novembre, voire janvier dans l'hémisphère nord.
+La plante pratique la nyctinastie : la fleur s'ouvre le matin et se ferme complètement le soir ; elle fait de même par temps humide ou très nuageux. La nyctinastie a un impact positif sur la croissance mais peut, par le processus d'exaptation, jouer un rôle de défense contre les herbivores la nuit, sachant que les principaux consommateurs de ces fleurs, les limaces et les chevreuils, sont surtout actifs de nuit.
 </t>
         </is>
       </c>
@@ -642,13 +666,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terrains nus, découverts, tels que les bords de chemins, les friches, les cultures, mais aussi les vieux murs, ce végétal est présent en environnement urbain (les graines très fines et dispersée permettent à la plante de s'introduire dans les jardinières sur les balcons en pleine ville), en association avec la Drave printanière et le Cystoptère fragile. C'est une espèce nitrophile.
+Largement répandue en Europe, Asie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cardamine_hirsute</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine_hirsute</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (12 février 2022)[1] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 février 2022) :
 Arabis heterophylla G.Forst. ex DC.
 Cardamine africana subsp. borbonica (Bojer) O.E. Schulz
 Cardamine borbonica Bojer
@@ -667,33 +730,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cardamine_hirsute</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cardamine_hirsute</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (12 février 2022)[8] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (12 février 2022) (Attention liste brute contenant possiblement des synonymes) :
 Sous-espèce :
 Cardamine hirsuta proles borbonica (Bojer) O.E. Schulz
 Cardamine hirsuta proles lasiocarpa O.E. Schulz
@@ -753,34 +818,36 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cardamine_hirsute</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cardamine_hirsute</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles et les fleurs fournissent une salade au goût piquant, ce qui lui vaut le nom de « cresson des vignes », « cressonnette » et « quersonnette »[9].
-Cette plante aurait des vertus stimulantes, diurétiques et antiscorbutiques[9].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles et les fleurs fournissent une salade au goût piquant, ce qui lui vaut le nom de « cresson des vignes », « cressonnette » et « quersonnette ».
+Cette plante aurait des vertus stimulantes, diurétiques et antiscorbutiques.
 </t>
         </is>
       </c>
